--- a/src/data/Paradise Lost_all_revised_cleaned.xlsx
+++ b/src/data/Paradise Lost_all_revised_cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mts/Dev/vuejs-rollup-boilerplate/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9EE47B-8BCB-8B44-ADE0-8C1671824BCA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE29A79-C2C9-FF4E-A5C5-236E453D611B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="32720" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="440" windowWidth="32720" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paradise Lost_spreadsheet (all)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="432">
   <si>
     <t>Place</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Delphian cliff</t>
-  </si>
-  <si>
-    <t>Dodona</t>
   </si>
   <si>
     <t>Doric land</t>
@@ -3190,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3219,7 +3216,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -3234,21 +3231,21 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N1" t="s">
         <v>290</v>
-      </c>
-      <c r="N1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="20">
         <v>61</v>
@@ -3263,10 +3260,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>9</v>
@@ -3281,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3304,10 +3301,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -3322,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3345,10 +3342,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -3363,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3386,10 +3383,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
@@ -3404,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -3424,13 +3421,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -3448,10 +3445,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3471,10 +3468,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>19</v>
@@ -3489,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3512,10 +3509,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>19</v>
@@ -3530,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3553,10 +3550,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>22</v>
@@ -3571,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3594,10 +3591,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>22</v>
@@ -3612,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3635,10 +3632,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>22</v>
@@ -3653,10 +3650,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3676,10 +3673,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>22</v>
@@ -3694,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3717,10 +3714,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>22</v>
@@ -3735,10 +3732,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3758,10 +3755,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>22</v>
@@ -3776,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3799,10 +3796,10 @@
         <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>22</v>
@@ -3817,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3840,10 +3837,10 @@
         <v>8</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>22</v>
@@ -3858,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3881,10 +3878,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>22</v>
@@ -3899,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3922,10 +3919,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>32</v>
@@ -3940,15 +3937,15 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="2" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B19" s="21">
         <v>31</v>
@@ -3963,13 +3960,13 @@
         <v>8</v>
       </c>
       <c r="F19" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>17</v>
@@ -3984,10 +3981,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4007,10 +4004,10 @@
         <v>8</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>34</v>
@@ -4025,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4048,10 +4045,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>36</v>
@@ -4066,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4089,10 +4086,10 @@
         <v>8</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>22</v>
@@ -4107,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4130,10 +4127,10 @@
         <v>8</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>22</v>
@@ -4148,10 +4145,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4171,10 +4168,10 @@
         <v>8</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>36</v>
@@ -4189,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4212,10 +4209,10 @@
         <v>8</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>36</v>
@@ -4230,10 +4227,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4253,10 +4250,10 @@
         <v>8</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>42</v>
@@ -4274,10 +4271,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4297,10 +4294,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>44</v>
@@ -4318,15 +4315,15 @@
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28" s="21">
         <v>35.227347000000002</v>
@@ -4341,10 +4338,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>44</v>
@@ -4362,10 +4359,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4385,10 +4382,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>44</v>
@@ -4406,16 +4403,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="B30" s="21">
         <v>39.546388999999998</v>
       </c>
@@ -4429,10 +4423,10 @@
         <v>8</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>44</v>
@@ -4450,15 +4444,15 @@
         <v>0</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="21">
         <v>38.683332999999998</v>
@@ -4473,10 +4467,10 @@
         <v>8</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>44</v>
@@ -4494,15 +4488,15 @@
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="24">
         <v>41.9</v>
@@ -4517,10 +4511,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>44</v>
@@ -4538,15 +4532,15 @@
         <v>0</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="21">
         <v>48.856667000000002</v>
@@ -4561,10 +4555,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>44</v>
@@ -4582,15 +4576,15 @@
         <v>0</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="21">
         <v>32.536389</v>
@@ -4605,13 +4599,13 @@
         <v>8</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>17</v>
@@ -4626,15 +4620,15 @@
         <v>1</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="21">
         <v>27.1</v>
@@ -4649,13 +4643,13 @@
         <v>8</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -4667,15 +4661,15 @@
         <v>0</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="21">
         <v>21</v>
@@ -4690,13 +4684,13 @@
         <v>8</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -4708,15 +4702,15 @@
         <v>0</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" s="21">
         <v>38.828611000000002</v>
@@ -4731,13 +4725,13 @@
         <v>8</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>45</v>
@@ -4752,15 +4746,15 @@
         <v>0</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="21">
         <v>38.828611000000002</v>
@@ -4775,13 +4769,13 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>45</v>
@@ -4796,15 +4790,15 @@
         <v>0</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="21">
         <v>38.549999999999997</v>
@@ -4819,13 +4813,13 @@
         <v>8</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>45</v>
@@ -4840,15 +4834,15 @@
         <v>0</v>
       </c>
       <c r="M39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="21">
         <v>31.416667</v>
@@ -4863,13 +4857,13 @@
         <v>8</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -4881,15 +4875,15 @@
         <v>0</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="21">
         <v>31.190483</v>
@@ -4904,13 +4898,13 @@
         <v>8</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -4922,15 +4916,15 @@
         <v>0</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="21">
         <v>32.825000000000003</v>
@@ -4942,16 +4936,16 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -4963,15 +4957,15 @@
         <v>1</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" s="21">
         <v>31.5</v>
@@ -4983,16 +4977,16 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
@@ -5004,15 +4998,15 @@
         <v>1</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" s="21">
         <v>41.119444000000001</v>
@@ -5024,16 +5018,16 @@
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
@@ -5045,15 +5039,15 @@
         <v>1</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="21">
         <v>41.083333000000003</v>
@@ -5068,13 +5062,13 @@
         <v>8</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>45</v>
@@ -5089,15 +5083,15 @@
         <v>0</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="21">
         <v>39.957500000000003</v>
@@ -5112,13 +5106,13 @@
         <v>8</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -5130,15 +5124,15 @@
         <v>0</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="21">
         <v>90</v>
@@ -5150,16 +5144,16 @@
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -5171,15 +5165,15 @@
         <v>1</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" s="21">
         <v>65.7</v>
@@ -5191,16 +5185,16 @@
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -5212,15 +5206,15 @@
         <v>1</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B49" s="21">
         <v>35</v>
@@ -5232,16 +5226,16 @@
         <v>2</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
@@ -5253,15 +5247,15 @@
         <v>2</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" s="21">
         <v>37.393332999999998</v>
@@ -5276,14 +5270,14 @@
         <v>8</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="J50" s="2">
         <v>1</v>
       </c>
@@ -5294,15 +5288,15 @@
         <v>1</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" s="21">
         <v>32.190556000000001</v>
@@ -5314,16 +5308,16 @@
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J51" s="2">
         <v>0</v>
@@ -5335,15 +5329,15 @@
         <v>1</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="21">
         <v>46.323611</v>
@@ -5355,16 +5349,16 @@
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
@@ -5376,15 +5370,15 @@
         <v>1</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53" s="21">
         <v>38.066667000000002</v>
@@ -5396,16 +5390,16 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
@@ -5417,15 +5411,15 @@
         <v>1</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="21">
         <v>36.266666999999998</v>
@@ -5437,16 +5431,16 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
@@ -5458,15 +5452,15 @@
         <v>1</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="21">
         <v>38.483333000000002</v>
@@ -5481,13 +5475,13 @@
         <v>8</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>45</v>
@@ -5502,15 +5496,15 @@
         <v>0</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B56" s="21">
         <v>31.5</v>
@@ -5525,13 +5519,13 @@
         <v>8</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>45</v>
@@ -5546,15 +5540,15 @@
         <v>0</v>
       </c>
       <c r="M56" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N56" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B57" s="21">
         <v>32.498333000000002</v>
@@ -5566,16 +5560,16 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -5587,15 +5581,15 @@
         <v>1</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58" s="21">
         <v>26</v>
@@ -5610,13 +5604,13 @@
         <v>8</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>17</v>
@@ -5631,15 +5625,15 @@
         <v>4</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="2" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B59" s="21">
         <v>28.539722000000001</v>
@@ -5651,16 +5645,16 @@
         <v>4</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F59" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>17</v>
@@ -5675,15 +5669,15 @@
         <v>0</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B60" s="21">
         <v>31.771667000000001</v>
@@ -5698,13 +5692,13 @@
         <v>8</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>17</v>
@@ -5719,15 +5713,15 @@
         <v>0</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B61" s="21">
         <v>38.416666999999997</v>
@@ -5739,16 +5733,16 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>45</v>
@@ -5763,15 +5757,15 @@
         <v>0</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B62" s="21">
         <v>22</v>
@@ -5786,13 +5780,13 @@
         <v>8</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>17</v>
@@ -5807,15 +5801,15 @@
         <v>0</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63" s="21">
         <v>31.7</v>
@@ -5830,10 +5824,10 @@
         <v>8</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>34</v>
@@ -5848,15 +5842,15 @@
         <v>0</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B64" s="21">
         <v>31.666667</v>
@@ -5871,10 +5865,10 @@
         <v>8</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>34</v>
@@ -5889,15 +5883,15 @@
         <v>0</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B65" s="21">
         <v>31.778890000000001</v>
@@ -5912,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>34</v>
@@ -5930,15 +5924,15 @@
         <v>0</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" s="21">
         <v>31.516667000000002</v>
@@ -5953,10 +5947,10 @@
         <v>8</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>34</v>
@@ -5971,15 +5965,15 @@
         <v>0</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B67" s="21">
         <v>31.778611000000001</v>
@@ -5991,16 +5985,16 @@
         <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J67" s="2">
         <v>0</v>
@@ -6012,15 +6006,15 @@
         <v>1</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B68" s="21">
         <v>33.248610999999997</v>
@@ -6032,16 +6026,16 @@
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>17</v>
@@ -6056,15 +6050,15 @@
         <v>1</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B69" s="21">
         <v>31.95</v>
@@ -6076,16 +6070,16 @@
         <v>2</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F69" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>17</v>
@@ -6100,15 +6094,15 @@
         <v>1</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B70" s="21">
         <v>31.249772</v>
@@ -6120,16 +6114,16 @@
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>17</v>
@@ -6144,15 +6138,15 @@
         <v>1</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B71" s="21">
         <v>33.094444000000003</v>
@@ -6164,16 +6158,16 @@
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F71" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="H71" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J71" s="2">
         <v>0</v>
@@ -6185,15 +6179,15 @@
         <v>1</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B72" s="21">
         <v>36.200000000000003</v>
@@ -6205,16 +6199,16 @@
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>45</v>
@@ -6229,15 +6223,15 @@
         <v>1</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B73" s="21">
         <v>35.25</v>
@@ -6249,16 +6243,16 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>45</v>
@@ -6273,15 +6267,15 @@
         <v>1</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B74" s="21">
         <v>37.563333</v>
@@ -6293,16 +6287,16 @@
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>45</v>
@@ -6317,15 +6311,15 @@
         <v>1</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B75" s="21">
         <v>11.5</v>
@@ -6337,36 +6331,36 @@
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F75" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0</v>
+      </c>
+      <c r="M75" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J75" s="2">
-        <v>0</v>
-      </c>
-      <c r="K75" s="2">
-        <v>1</v>
-      </c>
-      <c r="L75" s="2">
-        <v>0</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="N75" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" s="21">
         <v>9.0299999999999994</v>
@@ -6378,16 +6372,16 @@
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J76" s="2">
         <v>0</v>
@@ -6399,15 +6393,15 @@
         <v>0</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B77" s="21">
         <v>28.613333000000001</v>
@@ -6419,16 +6413,16 @@
         <v>5</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="J77" s="2">
         <v>0</v>
@@ -6440,15 +6434,15 @@
         <v>4</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B78" s="21">
         <v>38.433332999999998</v>
@@ -6460,16 +6454,16 @@
         <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J78" s="2">
         <v>0</v>
@@ -6481,15 +6475,15 @@
         <v>1</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B79" s="21">
         <v>40.5</v>
@@ -6501,16 +6495,16 @@
         <v>1</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J79" s="2">
         <v>0</v>
@@ -6522,15 +6516,15 @@
         <v>1</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B80" s="21">
         <v>36.858055999999998</v>
@@ -6542,16 +6536,16 @@
         <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J80" s="2">
         <v>0</v>
@@ -6563,15 +6557,15 @@
         <v>1</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B81" s="21">
         <v>37.633333</v>
@@ -6583,16 +6577,16 @@
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J81" s="2">
         <v>0</v>
@@ -6604,15 +6598,15 @@
         <v>0</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B82" s="21">
         <v>41.9</v>
@@ -6627,13 +6621,13 @@
         <v>8</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J82" s="2">
         <v>2</v>
@@ -6645,15 +6639,15 @@
         <v>1</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B83" s="21">
         <v>32.143059999999998</v>
@@ -6665,16 +6659,16 @@
         <v>1</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>17</v>
@@ -6689,15 +6683,15 @@
         <v>1</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B84" s="21">
         <v>30.962499999999999</v>
@@ -6709,16 +6703,16 @@
         <v>1</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>17</v>
@@ -6733,15 +6727,15 @@
         <v>0</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B85" s="21">
         <v>36.877499999999998</v>
@@ -6753,16 +6747,16 @@
         <v>1</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>17</v>
@@ -6777,15 +6771,15 @@
         <v>0</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B86" s="21">
         <v>32.203055999999997</v>
@@ -6797,16 +6791,16 @@
         <v>1</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>17</v>
@@ -6821,15 +6815,15 @@
         <v>0</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B87" s="21">
         <v>35.133333</v>
@@ -6841,16 +6835,16 @@
         <v>1</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>17</v>
@@ -6865,15 +6859,15 @@
         <v>0</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B88" s="21">
         <v>33.416111000000001</v>
@@ -6885,16 +6879,16 @@
         <v>2</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>17</v>
@@ -6909,15 +6903,15 @@
         <v>0</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B89" s="21">
         <v>32.729999999999997</v>
@@ -6929,16 +6923,16 @@
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>17</v>
@@ -6953,15 +6947,15 @@
         <v>0</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" s="21">
         <v>31.95</v>
@@ -6973,16 +6967,16 @@
         <v>1</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>17</v>
@@ -6997,15 +6991,15 @@
         <v>0</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B91" s="21">
         <v>31.847451</v>
@@ -7017,16 +7011,16 @@
         <v>1</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>17</v>
@@ -7041,15 +7035,15 @@
         <v>0</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B92" s="21">
         <v>31.8675</v>
@@ -7061,16 +7055,16 @@
         <v>1</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>17</v>
@@ -7085,15 +7079,15 @@
         <v>0</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B93" s="26">
         <v>37.983972000000001</v>
@@ -7108,14 +7102,14 @@
         <v>8</v>
       </c>
       <c r="F93" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="J93" s="2">
         <v>1</v>
       </c>
@@ -7126,15 +7120,15 @@
         <v>0</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B94" s="21">
         <v>31.9</v>
@@ -7149,13 +7143,13 @@
         <v>8</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J94" s="2">
         <v>1</v>
@@ -7167,15 +7161,15 @@
         <v>1</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95" s="21">
         <v>43.807222000000003</v>
@@ -7187,20 +7181,20 @@
         <v>1</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H95" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I95" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="J95" s="2">
         <v>0</v>
       </c>
@@ -7211,15 +7205,15 @@
         <v>0</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" s="21">
         <v>43.566667000000002</v>
@@ -7231,30 +7225,30 @@
         <v>1</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H96" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I96" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I96" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="M96" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="21">
         <v>36.143000000000001</v>
@@ -7269,10 +7263,10 @@
         <v>8</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>19</v>
@@ -7287,15 +7281,15 @@
         <v>0</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" s="21">
         <v>27</v>
@@ -7307,13 +7301,13 @@
         <v>3</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>19</v>
@@ -7328,15 +7322,15 @@
         <v>2</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99" s="21">
         <v>33.9</v>
@@ -7348,16 +7342,16 @@
         <v>1</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J99" s="2">
         <v>1</v>
@@ -7371,7 +7365,7 @@
     </row>
     <row r="100" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B100" s="21">
         <v>41.35</v>
@@ -7386,13 +7380,13 @@
         <v>8</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J100" s="2">
         <v>1</v>
@@ -7404,15 +7398,15 @@
         <v>0</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B101" s="21">
         <v>39.916666999999997</v>
@@ -7424,16 +7418,16 @@
         <v>1</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J101" s="2">
         <v>1</v>
@@ -7445,15 +7439,15 @@
         <v>0</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="21">
         <v>31.2</v>
@@ -7465,16 +7459,16 @@
         <v>1</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J102" s="2">
         <v>0</v>
@@ -7486,15 +7480,15 @@
         <v>1</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="2" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" s="21">
         <v>35</v>
@@ -7506,16 +7500,16 @@
         <v>1</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J103" s="2">
         <v>0</v>
@@ -7527,15 +7521,15 @@
         <v>1</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104" s="21">
         <v>-34.358055999999998</v>
@@ -7547,16 +7541,16 @@
         <v>1</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J104" s="2">
         <v>0</v>
@@ -7568,15 +7562,15 @@
         <v>0</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:14" s="2" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" s="21">
         <v>-25.95</v>
@@ -7588,16 +7582,16 @@
         <v>1</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
@@ -7609,15 +7603,15 @@
         <v>0</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="2" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B106" s="21">
         <v>15</v>
@@ -7629,16 +7623,16 @@
         <v>1</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
@@ -7650,15 +7644,15 @@
         <v>0</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107" s="21">
         <v>37</v>
@@ -7670,24 +7664,24 @@
         <v>1</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="21">
         <v>37.75</v>
@@ -7699,24 +7693,24 @@
         <v>1</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="21">
         <v>25.720555999999998</v>
@@ -7728,16 +7722,16 @@
         <v>2</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>45</v>
@@ -7752,15 +7746,15 @@
         <v>2</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="21">
         <v>46</v>
@@ -7772,16 +7766,16 @@
         <v>1</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J110" s="2">
         <v>0</v>
@@ -7793,15 +7787,15 @@
         <v>1</v>
       </c>
       <c r="M110" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N110" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="N110" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B111" s="21">
         <v>66.533889000000002</v>
@@ -7813,16 +7807,16 @@
         <v>1</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J111" s="2">
         <v>0</v>
@@ -7834,15 +7828,15 @@
         <v>1</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" s="21">
         <v>-90</v>
@@ -7854,17 +7848,17 @@
         <v>1</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G112" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H112" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H112" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="J112" s="2">
         <v>0</v>
       </c>
@@ -7875,15 +7869,15 @@
         <v>1</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B113" s="21">
         <v>35.25</v>
@@ -7895,16 +7889,16 @@
         <v>1</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J113" s="2">
         <v>0</v>
@@ -7916,15 +7910,15 @@
         <v>1</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="21">
         <v>7.9</v>
@@ -7936,16 +7930,16 @@
         <v>1</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J114" s="2">
         <v>0</v>
@@ -7957,15 +7951,15 @@
         <v>1</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B115" s="21">
         <v>22.083333</v>
@@ -7977,16 +7971,16 @@
         <v>2</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J115" s="2">
         <v>0</v>
@@ -7998,15 +7992,15 @@
         <v>2</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B116" s="21">
         <v>11.25</v>
@@ -8018,16 +8012,16 @@
         <v>1</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J116" s="2">
         <v>0</v>
@@ -8041,7 +8035,7 @@
     </row>
     <row r="117" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117" s="21">
         <v>17</v>
@@ -8053,16 +8047,16 @@
         <v>1</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J117" s="2">
         <v>0</v>
@@ -8074,15 +8068,15 @@
         <v>1</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" s="21">
         <v>40.200000000000003</v>
@@ -8094,16 +8088,16 @@
         <v>1</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J118" s="2">
         <v>0</v>
@@ -8115,15 +8109,15 @@
         <v>1</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="21">
         <v>-53.480832999999997</v>
@@ -8135,16 +8129,16 @@
         <v>1</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J119" s="2">
         <v>0</v>
@@ -8156,15 +8150,15 @@
         <v>1</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="21">
         <v>39.6</v>
@@ -8176,16 +8170,16 @@
         <v>1</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J120" s="2">
         <v>0</v>
@@ -8197,15 +8191,15 @@
         <v>1</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B121" s="21">
         <v>33.270833000000003</v>
@@ -8217,16 +8211,16 @@
         <v>1</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J121" s="2">
         <v>0</v>
@@ -8238,15 +8232,15 @@
         <v>1</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="21">
         <v>39.700000000000003</v>
@@ -8258,16 +8252,16 @@
         <v>1</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J122" s="2">
         <v>0</v>
@@ -8279,15 +8273,15 @@
         <v>1</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="21">
         <v>39.913888999999998</v>
@@ -8299,16 +8293,16 @@
         <v>1</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J123" s="2">
         <v>0</v>
@@ -8320,15 +8314,15 @@
         <v>1</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="21">
         <v>27.18</v>
@@ -8340,16 +8334,16 @@
         <v>1</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J124" s="2">
         <v>0</v>
@@ -8361,15 +8355,15 @@
         <v>1</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="21">
         <v>31.549721999999999</v>
@@ -8381,16 +8375,16 @@
         <v>1</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J125" s="2">
         <v>0</v>
@@ -8402,15 +8396,15 @@
         <v>1</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="21">
         <v>7</v>
@@ -8422,16 +8416,16 @@
         <v>1</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J126" s="2">
         <v>0</v>
@@ -8443,15 +8437,15 @@
         <v>1</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="127" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="21">
         <v>34.799999999999997</v>
@@ -8463,16 +8457,16 @@
         <v>1</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J127" s="2">
         <v>0</v>
@@ -8484,15 +8478,15 @@
         <v>1</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="21">
         <v>32.633333</v>
@@ -8504,16 +8498,16 @@
         <v>1</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J128" s="2">
         <v>0</v>
@@ -8525,15 +8519,15 @@
         <v>1</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="21">
         <v>55.75</v>
@@ -8545,16 +8539,16 @@
         <v>1</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J129" s="2">
         <v>0</v>
@@ -8566,15 +8560,15 @@
         <v>1</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="21">
         <v>41.013610999999997</v>
@@ -8586,16 +8580,16 @@
         <v>1</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J130" s="2">
         <v>0</v>
@@ -8607,15 +8601,15 @@
         <v>1</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="21">
         <v>15.533333000000001</v>
@@ -8627,16 +8621,16 @@
         <v>1</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J131" s="2">
         <v>0</v>
@@ -8648,15 +8642,15 @@
         <v>1</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="21">
         <v>-4.05</v>
@@ -8668,16 +8662,16 @@
         <v>1</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J132" s="2">
         <v>0</v>
@@ -8689,15 +8683,15 @@
         <v>1</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="21">
         <v>-8.9597219999999993</v>
@@ -8709,16 +8703,16 @@
         <v>1</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J133" s="2">
         <v>0</v>
@@ -8730,15 +8724,15 @@
         <v>1</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="21">
         <v>3.223611</v>
@@ -8750,16 +8744,16 @@
         <v>1</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J134" s="2">
         <v>0</v>
@@ -8771,15 +8765,15 @@
         <v>1</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="21">
         <v>-20.149999999999999</v>
@@ -8791,16 +8785,16 @@
         <v>1</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>17</v>
@@ -8815,15 +8809,15 @@
         <v>1</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="21">
         <v>-2.88</v>
@@ -8835,16 +8829,16 @@
         <v>1</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J136" s="2">
         <v>0</v>
@@ -8856,15 +8850,15 @@
         <v>1</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="21">
         <v>-8.8333329999999997</v>
@@ -8876,16 +8870,16 @@
         <v>1</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J137" s="2">
         <v>0</v>
@@ -8897,15 +8891,15 @@
         <v>1</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B138" s="21">
         <v>13.860139999999999</v>
@@ -8917,16 +8911,16 @@
         <v>1</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J138" s="2">
         <v>0</v>
@@ -8938,15 +8932,15 @@
         <v>1</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B139" s="21">
         <v>31.061944</v>
@@ -8958,16 +8952,16 @@
         <v>1</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J139" s="2">
         <v>0</v>
@@ -8979,15 +8973,15 @@
         <v>1</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="140" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" s="21">
         <v>34.033332999999999</v>
@@ -8999,16 +8993,16 @@
         <v>1</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J140" s="2">
         <v>0</v>
@@ -9020,15 +9014,15 @@
         <v>1</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" s="21">
         <v>35.833333000000003</v>
@@ -9040,16 +9034,16 @@
         <v>1</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J141" s="2">
         <v>0</v>
@@ -9061,15 +9055,15 @@
         <v>1</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" s="21">
         <v>32</v>
@@ -9081,16 +9075,16 @@
         <v>1</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J142" s="2">
         <v>0</v>
@@ -9102,15 +9096,15 @@
         <v>1</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" s="21">
         <v>28</v>
@@ -9122,16 +9116,16 @@
         <v>1</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J143" s="2">
         <v>0</v>
@@ -9143,15 +9137,15 @@
         <v>1</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" s="21">
         <v>34.882776</v>
@@ -9163,16 +9157,16 @@
         <v>1</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J144" s="2">
         <v>0</v>
@@ -9184,15 +9178,15 @@
         <v>1</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B145" s="21">
         <v>19.433333000000001</v>
@@ -9204,16 +9198,16 @@
         <v>1</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J145" s="2">
         <v>0</v>
@@ -9225,15 +9219,15 @@
         <v>1</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B146" s="21">
         <v>-13.525</v>
@@ -9245,16 +9239,16 @@
         <v>1</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J146" s="2">
         <v>0</v>
@@ -9266,15 +9260,15 @@
         <v>1</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B147" s="21">
         <v>-12.043333000000001</v>
@@ -9286,16 +9280,16 @@
         <v>1</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J147" s="2">
         <v>0</v>
@@ -9307,10 +9301,10 @@
         <v>1</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
